--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam12</t>
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H2">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I2">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J2">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>8.549704541795558</v>
+        <v>11.74660551363022</v>
       </c>
       <c r="R2">
-        <v>76.94734087616001</v>
+        <v>105.719449622672</v>
       </c>
       <c r="S2">
-        <v>0.004570742523208767</v>
+        <v>0.004581418635880846</v>
       </c>
       <c r="T2">
-        <v>0.004725527004145667</v>
+        <v>0.004653978144192287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H3">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I3">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J3">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>16.80737326131734</v>
+        <v>22.14405853122633</v>
       </c>
       <c r="R3">
-        <v>151.266359351856</v>
+        <v>199.296526781037</v>
       </c>
       <c r="S3">
-        <v>0.008985360288580388</v>
+        <v>0.008636639947708913</v>
       </c>
       <c r="T3">
-        <v>0.009289642212411566</v>
+        <v>0.008773425165973131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H4">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I4">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J4">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>27.86190165006578</v>
+        <v>49.72101649883455</v>
       </c>
       <c r="R4">
-        <v>250.757114850592</v>
+        <v>447.489148489511</v>
       </c>
       <c r="S4">
-        <v>0.01489520228761858</v>
+        <v>0.01939222282712902</v>
       </c>
       <c r="T4">
-        <v>0.01539961620785853</v>
+        <v>0.01969935261928168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H5">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I5">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J5">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>5.106258248898667</v>
+        <v>2.202360843441167</v>
       </c>
       <c r="R5">
-        <v>30.637549493392</v>
+        <v>13.214165060647</v>
       </c>
       <c r="S5">
-        <v>0.002729847750718305</v>
+        <v>0.0008589661923495872</v>
       </c>
       <c r="T5">
-        <v>0.001881527884178372</v>
+        <v>0.0005817135409378056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.400602666666667</v>
+        <v>4.480363666666666</v>
       </c>
       <c r="H6">
-        <v>10.201808</v>
+        <v>13.441091</v>
       </c>
       <c r="I6">
-        <v>0.04459276058749458</v>
+        <v>0.05823429740900917</v>
       </c>
       <c r="J6">
-        <v>0.04516209424246568</v>
+        <v>0.05886574272937452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>25.08679563609778</v>
+        <v>63.49676676946167</v>
       </c>
       <c r="R6">
-        <v>225.78116072488</v>
+        <v>571.470900925155</v>
       </c>
       <c r="S6">
-        <v>0.01341160773736854</v>
+        <v>0.0247650498059408</v>
       </c>
       <c r="T6">
-        <v>0.01386578093387154</v>
+        <v>0.02515727325898963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J7">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>175.8792972341334</v>
+        <v>183.4081470690134</v>
       </c>
       <c r="R7">
-        <v>1582.9136751072</v>
+        <v>1650.67332362112</v>
       </c>
       <c r="S7">
-        <v>0.0940265220733929</v>
+        <v>0.07153296345734456</v>
       </c>
       <c r="T7">
-        <v>0.09721065382868915</v>
+        <v>0.0726658869181859</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J8">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
         <v>345.7510119912801</v>
@@ -948,10 +948,10 @@
         <v>3111.75910792152</v>
       </c>
       <c r="S8">
-        <v>0.1848413410341213</v>
+        <v>0.1348500320261437</v>
       </c>
       <c r="T8">
-        <v>0.1911008428289328</v>
+        <v>0.136985757397968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J9">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>573.1580147436266</v>
+        <v>776.3297657231734</v>
       </c>
       <c r="R9">
-        <v>5158.42213269264</v>
+        <v>6986.96789150856</v>
       </c>
       <c r="S9">
-        <v>0.3064149992201282</v>
+        <v>0.3027846344329974</v>
       </c>
       <c r="T9">
-        <v>0.3167914941473183</v>
+        <v>0.3075800713805518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J10">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>105.04282433644</v>
+        <v>34.38703385452001</v>
       </c>
       <c r="R10">
-        <v>630.2569460186401</v>
+        <v>206.32220312712</v>
       </c>
       <c r="S10">
-        <v>0.05615675975765152</v>
+        <v>0.01341165305593686</v>
       </c>
       <c r="T10">
-        <v>0.03870564185908344</v>
+        <v>0.009082709259671503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9173350208206587</v>
+        <v>0.90925370493279</v>
       </c>
       <c r="J11">
-        <v>0.9290470048592353</v>
+        <v>0.9191129120074827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>516.0702296510667</v>
+        <v>991.4204000932001</v>
       </c>
       <c r="R11">
-        <v>4644.6320668596</v>
+        <v>8922.7836008388</v>
       </c>
       <c r="S11">
-        <v>0.2758953987353648</v>
+        <v>0.3866744219603674</v>
       </c>
       <c r="T11">
-        <v>0.2852383721952115</v>
+        <v>0.3927984870511055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H12">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I12">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J12">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>0.04848248050222222</v>
+        <v>0.05297254118755555</v>
       </c>
       <c r="R12">
-        <v>0.43634232452</v>
+        <v>0.476752870688</v>
       </c>
       <c r="S12">
-        <v>2.591913371729309E-05</v>
+        <v>2.066038457706161E-05</v>
       </c>
       <c r="T12">
-        <v>2.679686411632437E-05</v>
+        <v>2.098759923819215E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H13">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I13">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J13">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>0.09530892470633334</v>
+        <v>0.09986093865533333</v>
       </c>
       <c r="R13">
-        <v>0.8577803223570001</v>
+        <v>0.8987484478980001</v>
       </c>
       <c r="S13">
-        <v>5.09529367789184E-05</v>
+        <v>3.89478275082304E-05</v>
       </c>
       <c r="T13">
-        <v>5.267841657382901E-05</v>
+        <v>3.956467469867553E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J14">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>0.1579954133971111</v>
+        <v>0.2242221032548889</v>
       </c>
       <c r="R14">
-        <v>1.421958720574</v>
+        <v>2.017998929294</v>
       </c>
       <c r="S14">
-        <v>8.446565035737025E-05</v>
+        <v>8.745124889367973E-05</v>
       </c>
       <c r="T14">
-        <v>8.732601096205923E-05</v>
+        <v>8.883628268457818E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J15">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>0.02895586213316667</v>
+        <v>0.009931775639666667</v>
       </c>
       <c r="R15">
-        <v>0.173735172799</v>
+        <v>0.059590653838</v>
       </c>
       <c r="S15">
-        <v>1.548004257939423E-05</v>
+        <v>3.873597521442112E-06</v>
       </c>
       <c r="T15">
-        <v>1.066950776054627E-05</v>
+        <v>2.623297808965369E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01928366666666667</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>0.057851</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.0002528704512716912</v>
+        <v>0.0002626136303332581</v>
       </c>
       <c r="J16">
-        <v>0.0002560989497176267</v>
+        <v>0.0002654611987820265</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>0.1422587265261111</v>
+        <v>0.2863452840966667</v>
       </c>
       <c r="R16">
-        <v>1.280328538735</v>
+        <v>2.57710755687</v>
       </c>
       <c r="S16">
-        <v>7.605268783871521E-05</v>
+        <v>0.0001116805718328442</v>
       </c>
       <c r="T16">
-        <v>7.862815030486773E-05</v>
+        <v>0.0001134493443516153</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H17">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I17">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J17">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>7.251048114206666</v>
+        <v>6.491243783565333</v>
       </c>
       <c r="R17">
-        <v>43.50628868523999</v>
+        <v>38.947462701392</v>
       </c>
       <c r="S17">
-        <v>0.003876470092202359</v>
+        <v>0.002531719074550006</v>
       </c>
       <c r="T17">
-        <v>0.002671829067662493</v>
+        <v>0.00171454392574846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H18">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I18">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J18">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>14.2544191551265</v>
+        <v>12.2369379066095</v>
       </c>
       <c r="R18">
-        <v>85.52651493075899</v>
+        <v>73.421627439657</v>
       </c>
       <c r="S18">
-        <v>0.007620529979424902</v>
+        <v>0.004772658391090524</v>
       </c>
       <c r="T18">
-        <v>0.005252395356016601</v>
+        <v>0.00323216447526712</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H19">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I19">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J19">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>23.62982117455633</v>
+        <v>27.47612822156183</v>
       </c>
       <c r="R19">
-        <v>141.778927047338</v>
+        <v>164.856769329371</v>
       </c>
       <c r="S19">
-        <v>0.01263269718039646</v>
+        <v>0.01071625719703024</v>
       </c>
       <c r="T19">
-        <v>0.008706995469268628</v>
+        <v>0.007257319292896734</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H20">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I20">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J20">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>4.33064371585325</v>
+        <v>1.21703764696675</v>
       </c>
       <c r="R20">
-        <v>17.322574863413</v>
+        <v>4.868150587867</v>
       </c>
       <c r="S20">
-        <v>0.002315197827966135</v>
+        <v>0.0004746698056653207</v>
       </c>
       <c r="T20">
-        <v>0.001063822275939812</v>
+        <v>0.0002143055655268102</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.8840685</v>
+        <v>2.4758755</v>
       </c>
       <c r="H21">
-        <v>5.768136999999999</v>
+        <v>4.951751</v>
       </c>
       <c r="I21">
-        <v>0.03781934814057506</v>
+        <v>0.03218061767783864</v>
       </c>
       <c r="J21">
-        <v>0.02553480194858139</v>
+        <v>0.02168637206800571</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>21.27623958224083</v>
+        <v>35.0886894167425</v>
       </c>
       <c r="R21">
-        <v>127.657437493445</v>
+        <v>210.532136500455</v>
       </c>
       <c r="S21">
-        <v>0.0113744530605852</v>
+        <v>0.01368531320950254</v>
       </c>
       <c r="T21">
-        <v>0.007839759779693849</v>
+        <v>0.00926803880856659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.015872</v>
+      </c>
+      <c r="I22">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J22">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.621797333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.865392</v>
+      </c>
+      <c r="O22">
+        <v>0.07867217155043885</v>
+      </c>
+      <c r="P22">
+        <v>0.07906089226781998</v>
+      </c>
+      <c r="Q22">
+        <v>0.01387105575822222</v>
+      </c>
+      <c r="R22">
+        <v>0.124839501824</v>
+      </c>
+      <c r="S22">
+        <v>5.409998086368197E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.49568045515204E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.015872</v>
+      </c>
+      <c r="I23">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J23">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.942469</v>
+      </c>
+      <c r="N23">
+        <v>14.827407</v>
+      </c>
+      <c r="O23">
+        <v>0.148308476825081</v>
+      </c>
+      <c r="P23">
+        <v>0.1490412718702539</v>
+      </c>
+      <c r="Q23">
+        <v>0.02614895598933333</v>
+      </c>
+      <c r="R23">
+        <v>0.235340603904</v>
+      </c>
+      <c r="S23">
+        <v>1.019863262960097E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.036015634700528E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.015872</v>
+      </c>
+      <c r="I24">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J24">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.09754033333333</v>
+      </c>
+      <c r="N24">
+        <v>33.292621</v>
+      </c>
+      <c r="O24">
+        <v>0.3330034651388949</v>
+      </c>
+      <c r="P24">
+        <v>0.3346488416844782</v>
+      </c>
+      <c r="Q24">
+        <v>0.05871338672355556</v>
+      </c>
+      <c r="R24">
+        <v>0.528420480512</v>
+      </c>
+      <c r="S24">
+        <v>2.289943284456536E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.326210906341151E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.015872</v>
+      </c>
+      <c r="I25">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J25">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4915585</v>
+      </c>
+      <c r="N25">
+        <v>0.983117</v>
+      </c>
+      <c r="O25">
+        <v>0.01475017696730553</v>
+      </c>
+      <c r="P25">
+        <v>0.009882038584175128</v>
+      </c>
+      <c r="Q25">
+        <v>0.002600672170666667</v>
+      </c>
+      <c r="R25">
+        <v>0.015604033024</v>
+      </c>
+      <c r="S25">
+        <v>1.014315832321398E-06</v>
+      </c>
+      <c r="T25">
+        <v>6.869202300441869E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.005290666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.015872</v>
+      </c>
+      <c r="I26">
+        <v>6.876635002886251E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.951199635510484E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.172235</v>
+      </c>
+      <c r="N26">
+        <v>42.516705</v>
+      </c>
+      <c r="O26">
+        <v>0.4252657095182797</v>
+      </c>
+      <c r="P26">
+        <v>0.4273669555932728</v>
+      </c>
+      <c r="Q26">
+        <v>0.07498057130666667</v>
+      </c>
+      <c r="R26">
+        <v>0.6748251417600001</v>
+      </c>
+      <c r="S26">
+        <v>2.924397063600659E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.970713025949183E-05</v>
       </c>
     </row>
   </sheetData>
